--- a/summary_report.xlsx
+++ b/summary_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\1. Daily\Production follow up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B7C34-B8EF-44DC-914E-302EAD3F2462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F849F95-F2CB-4AC8-86CA-483AC54EB4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
